--- a/report.xlsx
+++ b/report.xlsx
@@ -1631,13 +1631,27 @@
         </is>
       </c>
       <c r="B5" s="13" t="n"/>
-      <c r="C5" s="13" t="n"/>
-      <c r="D5" s="13" t="n"/>
-      <c r="E5" s="13" t="n"/>
-      <c r="F5" s="13" t="n"/>
-      <c r="G5" s="13" t="n"/>
-      <c r="H5" s="13" t="n"/>
-      <c r="I5" s="13" t="n"/>
+      <c r="C5" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="D5" s="13" t="n">
+        <v>66</v>
+      </c>
+      <c r="E5" s="13" t="n">
+        <v>77</v>
+      </c>
+      <c r="F5" s="13" t="n">
+        <v>63</v>
+      </c>
+      <c r="G5" s="13" t="n">
+        <v>81</v>
+      </c>
+      <c r="H5" s="13" t="n">
+        <v>71</v>
+      </c>
+      <c r="I5" s="13" t="n">
+        <v>50</v>
+      </c>
       <c r="J5" s="13" t="n"/>
       <c r="K5" s="13" t="n"/>
       <c r="L5" s="13" t="n"/>
@@ -1650,13 +1664,27 @@
         </is>
       </c>
       <c r="B6" s="14" t="n"/>
-      <c r="C6" s="14" t="n"/>
-      <c r="D6" s="14" t="n"/>
-      <c r="E6" s="14" t="n"/>
-      <c r="F6" s="14" t="n"/>
-      <c r="G6" s="14" t="n"/>
-      <c r="H6" s="14" t="n"/>
-      <c r="I6" s="14" t="n"/>
+      <c r="C6" s="14" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="E6" s="14" t="n">
+        <v>37</v>
+      </c>
+      <c r="F6" s="14" t="n">
+        <v>40</v>
+      </c>
+      <c r="G6" s="14" t="n">
+        <v>37</v>
+      </c>
+      <c r="H6" s="14" t="n">
+        <v>29</v>
+      </c>
+      <c r="I6" s="14" t="n">
+        <v>25</v>
+      </c>
       <c r="J6" s="14" t="n"/>
       <c r="K6" s="14" t="n"/>
       <c r="L6" s="14" t="n"/>
@@ -1669,13 +1697,27 @@
         </is>
       </c>
       <c r="B7" s="13" t="n"/>
-      <c r="C7" s="13" t="n"/>
-      <c r="D7" s="13" t="n"/>
-      <c r="E7" s="13" t="n"/>
-      <c r="F7" s="13" t="n"/>
-      <c r="G7" s="13" t="n"/>
-      <c r="H7" s="13" t="n"/>
-      <c r="I7" s="13" t="n"/>
+      <c r="C7" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="E7" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="F7" s="13" t="n">
+        <v>28</v>
+      </c>
+      <c r="G7" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="H7" s="13" t="n">
+        <v>28</v>
+      </c>
+      <c r="I7" s="13" t="n">
+        <v>20</v>
+      </c>
       <c r="J7" s="13" t="n"/>
       <c r="K7" s="13" t="n"/>
       <c r="L7" s="13" t="n"/>
@@ -1688,13 +1730,27 @@
         </is>
       </c>
       <c r="B8" s="14" t="n"/>
-      <c r="C8" s="14" t="n"/>
-      <c r="D8" s="14" t="n"/>
-      <c r="E8" s="14" t="n"/>
-      <c r="F8" s="14" t="n"/>
-      <c r="G8" s="14" t="n"/>
-      <c r="H8" s="14" t="n"/>
-      <c r="I8" s="14" t="n"/>
+      <c r="C8" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" s="14" t="n">
+        <v>24</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>28</v>
+      </c>
+      <c r="F8" s="14" t="n">
+        <v>22</v>
+      </c>
+      <c r="G8" s="14" t="n">
+        <v>26</v>
+      </c>
+      <c r="H8" s="14" t="n">
+        <v>22</v>
+      </c>
+      <c r="I8" s="14" t="n">
+        <v>14</v>
+      </c>
       <c r="J8" s="14" t="n"/>
       <c r="K8" s="14" t="n"/>
       <c r="L8" s="14" t="n"/>
@@ -1707,13 +1763,27 @@
         </is>
       </c>
       <c r="B9" s="13" t="n"/>
-      <c r="C9" s="13" t="n"/>
-      <c r="D9" s="13" t="n"/>
-      <c r="E9" s="13" t="n"/>
-      <c r="F9" s="13" t="n"/>
-      <c r="G9" s="13" t="n"/>
-      <c r="H9" s="13" t="n"/>
-      <c r="I9" s="13" t="n"/>
+      <c r="C9" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="E9" s="13" t="n">
+        <v>28</v>
+      </c>
+      <c r="F9" s="13" t="n">
+        <v>23</v>
+      </c>
+      <c r="G9" s="13" t="n">
+        <v>21</v>
+      </c>
+      <c r="H9" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" s="13" t="n">
+        <v>16</v>
+      </c>
       <c r="J9" s="13" t="n"/>
       <c r="K9" s="13" t="n"/>
       <c r="L9" s="13" t="n"/>
@@ -1726,13 +1796,27 @@
         </is>
       </c>
       <c r="B10" s="14" t="n"/>
-      <c r="C10" s="14" t="n"/>
-      <c r="D10" s="14" t="n"/>
-      <c r="E10" s="14" t="n"/>
-      <c r="F10" s="14" t="n"/>
-      <c r="G10" s="14" t="n"/>
-      <c r="H10" s="14" t="n"/>
-      <c r="I10" s="14" t="n"/>
+      <c r="C10" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="D10" s="14" t="n">
+        <v>16</v>
+      </c>
+      <c r="E10" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="F10" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="G10" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="H10" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="I10" s="14" t="n">
+        <v>11</v>
+      </c>
       <c r="J10" s="14" t="n"/>
       <c r="K10" s="14" t="n"/>
       <c r="L10" s="14" t="n"/>
@@ -1745,13 +1829,27 @@
         </is>
       </c>
       <c r="B11" s="13" t="n"/>
-      <c r="C11" s="13" t="n"/>
-      <c r="D11" s="13" t="n"/>
-      <c r="E11" s="13" t="n"/>
-      <c r="F11" s="13" t="n"/>
-      <c r="G11" s="13" t="n"/>
-      <c r="H11" s="13" t="n"/>
-      <c r="I11" s="13" t="n"/>
+      <c r="C11" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="I11" s="13" t="n">
+        <v>2</v>
+      </c>
       <c r="J11" s="13" t="n"/>
       <c r="K11" s="13" t="n"/>
       <c r="L11" s="13" t="n"/>
@@ -1922,13 +2020,27 @@
         </is>
       </c>
       <c r="B19" s="13" t="n"/>
-      <c r="C19" s="13" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="13" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="13" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="13" t="n"/>
+      <c r="C19" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="F19" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="G19" s="13" t="n">
+        <v>23</v>
+      </c>
+      <c r="H19" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="I19" s="13" t="n">
+        <v>9</v>
+      </c>
       <c r="J19" s="13" t="n"/>
       <c r="K19" s="13" t="n"/>
       <c r="L19" s="13" t="n"/>
@@ -1941,13 +2053,27 @@
         </is>
       </c>
       <c r="B20" s="14" t="n"/>
-      <c r="C20" s="14" t="n"/>
-      <c r="D20" s="14" t="n"/>
-      <c r="E20" s="14" t="n"/>
-      <c r="F20" s="14" t="n"/>
-      <c r="G20" s="14" t="n"/>
-      <c r="H20" s="14" t="n"/>
-      <c r="I20" s="14" t="n"/>
+      <c r="C20" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D20" s="14" t="n">
+        <v>22</v>
+      </c>
+      <c r="E20" s="14" t="n">
+        <v>17</v>
+      </c>
+      <c r="F20" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="G20" s="14" t="n">
+        <v>23</v>
+      </c>
+      <c r="H20" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="I20" s="14" t="n">
+        <v>8</v>
+      </c>
       <c r="J20" s="14" t="n"/>
       <c r="K20" s="14" t="n"/>
       <c r="L20" s="14" t="n"/>
@@ -1960,13 +2086,27 @@
         </is>
       </c>
       <c r="B21" s="13" t="n"/>
-      <c r="C21" s="13" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="13" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="13" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="13" t="n"/>
+      <c r="C21" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="D21" s="13" t="n">
+        <v>21</v>
+      </c>
+      <c r="E21" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="F21" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="G21" s="13" t="n">
+        <v>21</v>
+      </c>
+      <c r="H21" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="I21" s="13" t="n">
+        <v>10</v>
+      </c>
       <c r="J21" s="13" t="n"/>
       <c r="K21" s="13" t="n"/>
       <c r="L21" s="13" t="n"/>
@@ -1979,13 +2119,27 @@
         </is>
       </c>
       <c r="B22" s="14" t="n"/>
-      <c r="C22" s="14" t="n"/>
-      <c r="D22" s="14" t="n"/>
-      <c r="E22" s="14" t="n"/>
-      <c r="F22" s="14" t="n"/>
-      <c r="G22" s="14" t="n"/>
-      <c r="H22" s="14" t="n"/>
-      <c r="I22" s="14" t="n"/>
+      <c r="C22" s="14" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E22" s="14" t="n">
+        <v>19</v>
+      </c>
+      <c r="F22" s="14" t="n">
+        <v>17</v>
+      </c>
+      <c r="G22" s="14" t="n">
+        <v>16</v>
+      </c>
+      <c r="H22" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="I22" s="14" t="n">
+        <v>10</v>
+      </c>
       <c r="J22" s="14" t="n"/>
       <c r="K22" s="14" t="n"/>
       <c r="L22" s="14" t="n"/>
@@ -1998,13 +2152,27 @@
         </is>
       </c>
       <c r="B23" s="13" t="n"/>
-      <c r="C23" s="13" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="13" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="13" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="13" t="n"/>
+      <c r="C23" s="13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D23" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="E23" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="F23" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="G23" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="H23" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="I23" s="13" t="n">
+        <v>17</v>
+      </c>
       <c r="J23" s="13" t="n"/>
       <c r="K23" s="13" t="n"/>
       <c r="L23" s="13" t="n"/>
@@ -2017,13 +2185,27 @@
         </is>
       </c>
       <c r="B24" s="14" t="n"/>
-      <c r="C24" s="14" t="n"/>
-      <c r="D24" s="14" t="n"/>
-      <c r="E24" s="14" t="n"/>
-      <c r="F24" s="14" t="n"/>
-      <c r="G24" s="14" t="n"/>
-      <c r="H24" s="14" t="n"/>
-      <c r="I24" s="14" t="n"/>
+      <c r="C24" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="D24" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E24" s="14" t="n">
+        <v>22</v>
+      </c>
+      <c r="F24" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="G24" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="H24" s="14" t="n">
+        <v>21</v>
+      </c>
+      <c r="I24" s="14" t="n">
+        <v>10</v>
+      </c>
       <c r="J24" s="14" t="n"/>
       <c r="K24" s="14" t="n"/>
       <c r="L24" s="14" t="n"/>
@@ -2036,13 +2218,27 @@
         </is>
       </c>
       <c r="B25" s="13" t="n"/>
-      <c r="C25" s="13" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="13" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="13" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="13" t="n"/>
+      <c r="C25" s="13" t="n">
+        <v>16</v>
+      </c>
+      <c r="D25" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="E25" s="13" t="n">
+        <v>26</v>
+      </c>
+      <c r="F25" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="G25" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="H25" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="I25" s="13" t="n">
+        <v>10</v>
+      </c>
       <c r="J25" s="13" t="n"/>
       <c r="K25" s="13" t="n"/>
       <c r="L25" s="13" t="n"/>
